--- a/Resources/Model_Result_Records.xlsx
+++ b/Resources/Model_Result_Records.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evan-\Bootcamp\hockey_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/294ca3c137fc4ff4/Documents/PROJECTS/Project4/hockey_project/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FDB1ED-7008-4EA6-BE9C-5D8C5AE1C950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7933DFF-830B-4588-A4EF-E5033181AF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{A7F7B54A-B49A-4109-B2C3-7FB7108ECDF1}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{A7F7B54A-B49A-4109-B2C3-7FB7108ECDF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,28 +34,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Linear Regression Results</t>
   </si>
   <si>
-    <t>Pre-Feature drop</t>
-  </si>
-  <si>
-    <t>Post Feature Drop</t>
-  </si>
-  <si>
     <t>Random Forest Results</t>
   </si>
   <si>
-    <t>Pre-Feature Drop</t>
+    <t>Neural Network Results</t>
+  </si>
+  <si>
+    <t>selu</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>Rsquare</t>
+  </si>
+  <si>
+    <t>relu</t>
+  </si>
+  <si>
+    <t>sigmoid</t>
+  </si>
+  <si>
+    <t>elu</t>
+  </si>
+  <si>
+    <t>softmax</t>
+  </si>
+  <si>
+    <t>Binary Crossentropy</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>Neural Network Structure Testing</t>
+  </si>
+  <si>
+    <t>Layers Tested</t>
+  </si>
+  <si>
+    <t>Neurons Tested</t>
+  </si>
+  <si>
+    <t>Activation Functions Tested</t>
+  </si>
+  <si>
+    <t>Epochs Tested</t>
+  </si>
+  <si>
+    <t>Loss Tested</t>
+  </si>
+  <si>
+    <t>Metric Tested</t>
+  </si>
+  <si>
+    <t>**** Best Performance in Green ****</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +111,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,9 +152,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -112,21 +202,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495327</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>100019</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>809738</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD9E569-26CA-DB3A-9D75-1667CA6D9AF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8BF8E2A-A3C7-6CAD-3CB5-8D8BCF9BF98B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -142,8 +232,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="361950"/>
-          <a:ext cx="3733827" cy="823919"/>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="3077004" cy="809738"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -154,23 +244,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>171475</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>61918</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>971977</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>800212</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18943699-266F-C218-6438-10A4CCD250CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72C61ECD-0E22-9DED-51AA-D0102959F5ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -186,8 +276,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4533900" y="361950"/>
-          <a:ext cx="3409975" cy="785818"/>
+          <a:off x="0" y="1390650"/>
+          <a:ext cx="3057952" cy="800212"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -200,21 +290,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>585815</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76206</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1267434</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>362001</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0EFE2DB-9FDF-B747-6E41-E1CAB743A350}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{703CA0D8-05CA-D52D-9853-181CFFD312C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -230,52 +320,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1628775"/>
-          <a:ext cx="3824315" cy="800106"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>123850</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104781</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{284DAB0C-8544-74F5-E291-2D307EEE7858}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4533900" y="1628775"/>
-          <a:ext cx="3362350" cy="828681"/>
+          <a:off x="0" y="2590800"/>
+          <a:ext cx="4363059" cy="362001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -288,9 +334,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -328,7 +374,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -434,7 +480,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -576,7 +622,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -584,54 +630,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5F264E-3B43-4F02-900C-7A0FE48AA41A}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7">
+        <v>100</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>2</v>
+      </c>
+      <c r="B13" s="7">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7">
+        <v>250</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>3</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="B14" s="7">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7">
+        <v>500</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>4</v>
       </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="1"/>
+      <c r="B15" s="7">
+        <v>20</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>600</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>5</v>
+      </c>
+      <c r="B16" s="7">
+        <v>25</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="8">
+        <v>525</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Resources/Model_Result_Records.xlsx
+++ b/Resources/Model_Result_Records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/294ca3c137fc4ff4/Documents/PROJECTS/Project4/hockey_project/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7933DFF-830B-4588-A4EF-E5033181AF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20ED0A4E-4DB5-4EBB-AED5-6CF5144438FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{A7F7B54A-B49A-4109-B2C3-7FB7108ECDF1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7F7B54A-B49A-4109-B2C3-7FB7108ECDF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Linear Regression Results</t>
   </si>
@@ -97,6 +97,21 @@
   </si>
   <si>
     <t>**** Best Performance in Green ****</t>
+  </si>
+  <si>
+    <t>Neural Network Testing Examples</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4 Best Model</t>
   </si>
 </sst>
 </file>
@@ -152,15 +167,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -177,6 +188,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -207,7 +221,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
+      <xdr:colOff>781050</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>809738</xdr:rowOff>
     </xdr:to>
@@ -251,7 +265,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>971977</xdr:colOff>
+      <xdr:colOff>762427</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>800212</xdr:rowOff>
     </xdr:to>
@@ -295,16 +309,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1267434</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>362001</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{703CA0D8-05CA-D52D-9853-181CFFD312C5}"/>
+      <xdr:colOff>1010252</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E8AAF1A-715E-ECAD-5A3B-7E4203C7E8A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -321,7 +335,535 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2590800"/>
-          <a:ext cx="4363059" cy="362001"/>
+          <a:ext cx="4315427" cy="400106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>667674</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2915057</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB85592A-CF2F-AA13-36E5-D35D0DA1B0EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5067300"/>
+          <a:ext cx="6620799" cy="2915057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>791006</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FDE3CAA-E86C-82BA-BCA7-49DF1D2EC964}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8010525"/>
+          <a:ext cx="3086531" cy="219106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1410358</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>333422</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7828133-DD0B-2ADB-25E9-67875878932F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8248650"/>
+          <a:ext cx="4715533" cy="333422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600990</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2505425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D26E0A-DA1F-AF3A-7014-BFFC211658FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9182100"/>
+          <a:ext cx="6554115" cy="2505425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>714795</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>371527</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C86A9C4-D6C1-0B1B-AA37-C93BE015B30F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11715750"/>
+          <a:ext cx="3010320" cy="371527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1038831</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>371527</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{756256A9-C8C5-7515-9840-BF9229912A59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12125325"/>
+          <a:ext cx="4344006" cy="371527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>534305</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2724530</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FD9649-F4ED-3C65-BFDA-B3A54E817DC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12915900"/>
+          <a:ext cx="6487430" cy="2724530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>762427</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>352474</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BF4BC1C-3FD1-BEF5-DE7E-2213B634EBAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15678150"/>
+          <a:ext cx="3057952" cy="352474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1048358</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>381053</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6458A935-3090-4CCB-0D86-9A64421A8960}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16068675"/>
+          <a:ext cx="4353533" cy="381053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>534305</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2953162</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF3969EC-577E-D557-B1CF-289769BE1AD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16859250"/>
+          <a:ext cx="6487430" cy="2953162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>933901</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>419158</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB70CFB4-5F26-E19F-D339-2C19BA7E41B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19840575"/>
+          <a:ext cx="3229426" cy="419158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>981673</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>390580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A65BB36-5503-D0BB-07D3-EDF817F751DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20278725"/>
+          <a:ext cx="4286848" cy="390580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -630,15 +1172,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5F264E-3B43-4F02-900C-7A0FE48AA41A}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -650,40 +1192,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="1"/>
@@ -695,120 +1235,157 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>1</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>5</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>100</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>2</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>10</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>250</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>3</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>15</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>500</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="6">
         <v>4</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>20</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>600</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>5</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>25</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>525</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="231.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="199.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="217.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="234.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:B2"/>

--- a/Resources/Model_Result_Records.xlsx
+++ b/Resources/Model_Result_Records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/294ca3c137fc4ff4/Documents/PROJECTS/Project4/hockey_project/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20ED0A4E-4DB5-4EBB-AED5-6CF5144438FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E50224D-46BA-49AA-8862-F3C6E6AF2C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7F7B54A-B49A-4109-B2C3-7FB7108ECDF1}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{A7F7B54A-B49A-4109-B2C3-7FB7108ECDF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -792,17 +792,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>933901</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200514</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>419158</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB70CFB4-5F26-E19F-D339-2C19BA7E41B8}"/>
+      <xdr:rowOff>409632</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D11C2B-43B6-1B15-25A6-F0A46FDAB4EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -819,7 +819,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="19840575"/>
-          <a:ext cx="3229426" cy="419158"/>
+          <a:ext cx="3505689" cy="409632"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -837,16 +837,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>981673</xdr:colOff>
+      <xdr:colOff>1029305</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>390580</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A65BB36-5503-D0BB-07D3-EDF817F751DD}"/>
+      <xdr:rowOff>352474</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F892BF-9B82-88EA-D66E-9668BF58FBD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -863,7 +863,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="20278725"/>
-          <a:ext cx="4286848" cy="390580"/>
+          <a:ext cx="4334480" cy="352474"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1175,7 +1175,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resources/Model_Result_Records.xlsx
+++ b/Resources/Model_Result_Records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/294ca3c137fc4ff4/Documents/PROJECTS/Project4/hockey_project/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E50224D-46BA-49AA-8862-F3C6E6AF2C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F96CFA1A-3014-4B97-8837-2A2A090DA39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{A7F7B54A-B49A-4109-B2C3-7FB7108ECDF1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7F7B54A-B49A-4109-B2C3-7FB7108ECDF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,16 +102,16 @@
     <t>Neural Network Testing Examples</t>
   </si>
   <si>
-    <t>#1</t>
-  </si>
-  <si>
     <t>#2</t>
   </si>
   <si>
     <t>#3</t>
   </si>
   <si>
-    <t>#4 Best Model</t>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#1 Best Model</t>
   </si>
 </sst>
 </file>
@@ -304,50 +304,6 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1010252</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19106</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E8AAF1A-715E-ECAD-5A3B-7E4203C7E8A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2590800"/>
-          <a:ext cx="4315427" cy="400106"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -371,7 +327,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -380,94 +336,6 @@
         <a:xfrm>
           <a:off x="0" y="5067300"/>
           <a:ext cx="6620799" cy="2915057"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>791006</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>219106</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FDE3CAA-E86C-82BA-BCA7-49DF1D2EC964}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="8010525"/>
-          <a:ext cx="3086531" cy="219106"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1410358</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>333422</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7828133-DD0B-2ADB-25E9-67875878932F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="8248650"/>
-          <a:ext cx="4715533" cy="333422"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -503,7 +371,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -547,7 +415,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -591,7 +459,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -635,7 +503,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -679,7 +547,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -723,7 +591,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -767,7 +635,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -811,7 +679,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -855,7 +723,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -864,6 +732,138 @@
         <a:xfrm>
           <a:off x="0" y="20278725"/>
           <a:ext cx="4334480" cy="352474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>972147</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E6C643-DA36-7D75-5C66-552B14A66421}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2590800"/>
+          <a:ext cx="4277322" cy="400106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>972147</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38156</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8001CD82-FA6C-4E76-8BEC-A466F55FDE25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="4277322" cy="400106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200514</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>409632</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CF635F-F4DB-4B47-99B2-9E926A0D3F74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8201025"/>
+          <a:ext cx="3505689" cy="409632"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1175,7 +1175,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,7 +1261,7 @@
       <c r="B12" s="6">
         <v>5</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="5">
@@ -1319,7 +1319,7 @@
       <c r="B15" s="5">
         <v>20</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="5">
@@ -1356,15 +1356,15 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="231.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="199.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1372,7 +1372,7 @@
     <row r="28" spans="1:1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="217.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1380,7 +1380,7 @@
     <row r="33" spans="1:1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="234.75" customHeight="1" x14ac:dyDescent="0.25"/>
